--- a/Results/graphs.xlsx
+++ b/Results/graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flipp\Documents\CompSci\Research\AOPST\AccessOptimizedPST\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31210816-08B6-4C3B-A636-A66A2F5FE8DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF3A44D-2D61-46B2-8FC8-CD5F68B301DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11070" activeTab="1" xr2:uid="{9873AB7A-C6D2-40AD-8ECD-0701E097AAD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{9873AB7A-C6D2-40AD-8ECD-0701E097AAD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Average Case" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Exponential Case</a:t>
+              <a:t>Exponential Distribution: p=1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -565,6 +565,7 @@
         <c:axId val="504736296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -762,8 +763,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1227,6 +1228,7 @@
         <c:axId val="352841296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1460,7 +1462,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Uniform Distribution</a:t>
+              <a:t>Uniform Distribution: p=0</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2124,11 +2126,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Parameterized Distribution</a:t>
+              <a:t>Mixed Distribution</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (p = 0.5)</a:t>
+              <a:t>: p=0.5</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2568,6 +2570,7 @@
         <c:axId val="502108016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2803,11 +2806,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Parameterized Distribution</a:t>
+              <a:t>Mixed Distribution</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (p=0.25)</a:t>
+              <a:t>: p=0.25</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3232,6 +3235,7 @@
         <c:axId val="525295328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3462,11 +3466,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Parameterized</a:t>
+              <a:t>Mixed</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Distribution (p = 0.75)</a:t>
+              <a:t> Distribution: p=0.75</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3891,6 +3895,7 @@
         <c:axId val="498920552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7428,13 +7433,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7884,7 +7889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B488E4-4F93-456A-89A9-BA0F6A07780A}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7965,7 +7972,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EC2B03-8425-42D9-A76A-81A12250EE25}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8047,7 +8056,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8130,7 +8139,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="N15" sqref="N14:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8213,7 +8222,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8295,8 +8304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215FAD8C-622F-444A-BB16-60C18541F360}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
